--- a/samples/delivery_import_sample.xlsx
+++ b/samples/delivery_import_sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -58,36 +58,32 @@
     <t xml:space="preserve">FedEx</t>
   </si>
   <si>
-    <t xml:space="preserve">"2014-07-31"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test-sku-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test-sku-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"2014-08-12"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test-sku-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test-sku-4</t>
+    <t xml:space="preserve">test-sku-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test-sku-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test-sku-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test-sku-9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -147,8 +143,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -172,16 +172,16 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.63"/>
@@ -230,17 +230,17 @@
       <c r="D2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>12</v>
+      <c r="E2" s="1" t="n">
+        <v>41851</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>12345</v>
+        <v>32345</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>333</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>50</v>
@@ -251,7 +251,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>100</v>
@@ -270,17 +270,17 @@
       <c r="D4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>15</v>
+      <c r="E4" s="1" t="n">
+        <v>41863</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>12346</v>
+        <v>32346</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>339</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>40</v>
@@ -291,7 +291,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>200</v>
